--- a/nome_categorias.xlsx
+++ b/nome_categorias.xlsx
@@ -1,33 +1,74 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Planilha1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet r:id="rId1" sheetId="1" name="Planilha1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
+  <si>
+    <t>Categoria</t>
+  </si>
+  <si>
+    <t>Cartão de Crédito</t>
+  </si>
+  <si>
+    <t>Saúde</t>
+  </si>
+  <si>
+    <t>Moradia</t>
+  </si>
+  <si>
+    <t>Transporte</t>
+  </si>
+  <si>
+    <t>Telefonia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Educação </t>
+  </si>
+  <si>
+    <t>Outros</t>
+  </si>
+  <si>
+    <t>Lazer</t>
+  </si>
+  <si>
+    <t>Alimentação</t>
+  </si>
+  <si>
+    <t>Cartão de crédico</t>
+  </si>
+  <si>
+    <t>Investimentos</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,86 +87,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle xfId="0" builtinId="0" name="Normal"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -413,153 +392,82 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
-    <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A19"/>
+  <dimension ref="A1:A13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col width="36.005" bestFit="1" customWidth="1" style="2" min="1" max="1"/>
+    <col min="1" max="1" style="2" width="36.005" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18.75" customHeight="1">
-      <c r="A1" s="2" t="inlineStr">
-        <is>
-          <t>Categoria</t>
-        </is>
-      </c>
-    </row>
-    <row r="2" ht="18.75" customHeight="1">
-      <c r="A2" s="2" t="inlineStr">
-        <is>
-          <t>Cartão de Crédito</t>
-        </is>
-      </c>
-    </row>
-    <row r="3" ht="18.75" customHeight="1">
-      <c r="A3" s="2" t="inlineStr">
-        <is>
-          <t>Saúde</t>
-        </is>
-      </c>
-    </row>
-    <row r="4" ht="18.75" customHeight="1">
-      <c r="A4" s="2" t="inlineStr">
-        <is>
-          <t>Moradia</t>
-        </is>
-      </c>
-    </row>
-    <row r="5" ht="18.75" customHeight="1">
-      <c r="A5" s="2" t="inlineStr">
-        <is>
-          <t>Transporte</t>
-        </is>
-      </c>
-    </row>
-    <row r="6" ht="18.75" customHeight="1">
-      <c r="A6" s="2" t="inlineStr">
-        <is>
-          <t>Telefonia</t>
-        </is>
-      </c>
-    </row>
-    <row r="7" ht="18.75" customHeight="1">
-      <c r="A7" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Educação </t>
-        </is>
-      </c>
-    </row>
-    <row r="8" ht="18.75" customHeight="1">
-      <c r="A8" s="2" t="inlineStr">
-        <is>
-          <t>Outros</t>
-        </is>
-      </c>
-    </row>
-    <row r="9" ht="18.75" customHeight="1">
-      <c r="A9" s="2" t="inlineStr">
-        <is>
-          <t>Lazer</t>
-        </is>
-      </c>
-    </row>
-    <row r="10" ht="18.75" customHeight="1">
-      <c r="A10" s="2" t="inlineStr">
-        <is>
-          <t>Alimentação</t>
-        </is>
-      </c>
-    </row>
-    <row r="11" ht="18.75" customHeight="1">
-      <c r="A11" s="2" t="inlineStr">
-        <is>
-          <t>Outros</t>
-        </is>
-      </c>
-    </row>
-    <row r="12" ht="18.75" customHeight="1">
-      <c r="A12" s="2" t="inlineStr">
-        <is>
-          <t>Cartão de crédico</t>
-        </is>
-      </c>
-    </row>
-    <row r="13" ht="18.75" customHeight="1">
-      <c r="A13" s="2" t="inlineStr">
-        <is>
-          <t>Investimentos</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>teste</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>teste</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>teste</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>teste</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>teste</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>teste</t>
-        </is>
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
+      <c r="A4" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
+      <c r="A5" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
+      <c r="A6" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
+      <c r="A7" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
+      <c r="A8" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
+      <c r="A9" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
+      <c r="A10" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
+      <c r="A11" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
+      <c r="A12" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
+      <c r="A13" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/nome_categorias.xlsx
+++ b/nome_categorias.xlsx
@@ -14,14 +14,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Categoria</t>
   </si>
   <si>
-    <t>Cartão de Crédito</t>
-  </si>
-  <si>
     <t>Saúde</t>
   </si>
   <si>
@@ -44,9 +41,6 @@
   </si>
   <si>
     <t>Alimentação</t>
-  </si>
-  <si>
-    <t>Cartão de crédico</t>
   </si>
   <si>
     <t>Investimentos</t>
@@ -396,7 +390,7 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:A13"/>
+  <dimension ref="A1:A10"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
@@ -455,21 +449,6 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
-      <c r="A11" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
-      <c r="A12" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
-      <c r="A13" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
